--- a/학습자료/단답형/객관식_국어_복습_고유어.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_고유어.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\GitHub\Private-Quizlet\학습자료\단답형\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BB4C03-7DF1-4835-B83D-AB3748F5343B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B147705-EAFE-41DB-88F7-D47D0F053E17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7560" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +28,24 @@
     <t>대답</t>
   </si>
   <si>
+    <t>서쪽에서 부는 바람
+1. 하늬바람
+2. 빗먹다
+3. 줄목</t>
+  </si>
+  <si>
+    <t>1, 하늬바람</t>
+  </si>
+  <si>
+    <t>물건을 벨 때 칼이나 톱이 먹줄대로 나가지 아니 하고 비뚤어지게 잘못 들어가다
+1. 명지바람
+2. 빗먹다
+3. 하늬바람</t>
+  </si>
+  <si>
+    <t>2, 빗먹다</t>
+  </si>
+  <si>
     <t>마음이나 생각 따위가 잘못 들다
 1. 트레바리
 2. 빗먹다
@@ -47,6 +65,100 @@
     <t>2, 맨드리</t>
   </si>
   <si>
+    <t>북동풍, 봄~초여름에 걸쳐 태백산맥을 넘어 영서 지방으로 부는 고온 건조한 바람
+1. 맨드리
+2. 오그랑이
+3. 높새바람</t>
+  </si>
+  <si>
+    <t>3, 높새바람</t>
+  </si>
+  <si>
+    <t>지나치게 치켜세우다
+1. 치살리다
+2. 하늬바람
+3. 트레바리</t>
+  </si>
+  <si>
+    <t>1, 치살리다</t>
+  </si>
+  <si>
+    <t>자세히 모르고 대강 또는 반쯤만 알다
+1. 데알다
+2. 빗먹다
+3. 하늬바람</t>
+  </si>
+  <si>
+    <t>1, 데알다</t>
+  </si>
+  <si>
+    <t>자기만 혼자 잘나고 영악한 체하는 사람을 낮잡아 이르는 말
+1. 빗들다
+2. 윤똑똑이
+3. 상없다</t>
+  </si>
+  <si>
+    <t>2, 윤똑똑이</t>
+  </si>
+  <si>
+    <t>일의 진행 과정에서 가장 중요한 대목
+그는 [   ]을 무사히 넘겼다
+1. 맨드리
+2. 줄목
+3. 갈무리</t>
+  </si>
+  <si>
+    <t>2, 줄목</t>
+  </si>
+  <si>
+    <t>1) 안쪽으로 오목하게 들어가거나 주름이 잡힌 물건
+2 마음씨가 바르지 못한 사람을 비유적으로 이르는 말
+1. 오그랑이
+2. 선걸음
+3. 명지바람</t>
+  </si>
+  <si>
+    <t>1, 오그랑이</t>
+  </si>
+  <si>
+    <t>보드랍고 화창한 바람
+1. 빗먹다
+2. 명지바람
+3. 데알다</t>
+  </si>
+  <si>
+    <t>2, 명지바람</t>
+  </si>
+  <si>
+    <t>이미 내디뎌 걷고 있는 그대로의 걸음
+그 사람들고 [   ]으로 그리 내달았다
+1. 명지바람
+2. 선걸음
+3. 하늬바람</t>
+  </si>
+  <si>
+    <t>2, 선걸음</t>
+  </si>
+  <si>
+    <t>좁은 틈으로 새어 들어오는 바람, 혹은 초봄에 부는 찬 바람
+1. 빗들다
+2. 빗먹다
+3. 살바람</t>
+  </si>
+  <si>
+    <t>3, 살바람</t>
+  </si>
+  <si>
+    <t>음식을 먹지 않음
+그녀는 [   ]으로 출근 시간이 되기만을 기다렸다
+1. 잔입
+2. 갈무리
+3. 데알다</t>
+  </si>
+  <si>
+    <t>1, 잔입</t>
+  </si>
+  <si>
     <t>물건 따위를 잘 정리하거나 간수함
 겨울 동안 [   ]를 했던 산나물을 팔았다
 1. 상없다
@@ -57,32 +169,13 @@
     <t>2, 갈무리</t>
   </si>
   <si>
-    <t>좁은 틈으로 새어 들어오는 바람, 혹은 초봄에 부는 찬 바람
-1. 빗들다
-2. 빗먹다
-3. 살바람</t>
-  </si>
-  <si>
-    <t>3, 살바람</t>
-  </si>
-  <si>
-    <t>음식을 먹지 않음
-그녀는 [   ]으로 출근 시간이 되기만을 기다렸다
-1. 잔입
-2. 갈무리
-3. 데알다</t>
-  </si>
-  <si>
-    <t>1, 잔입</t>
-  </si>
-  <si>
-    <t>물건을 벨 때 칼이나 톱이 먹줄대로 나가지 아니 하고 비뚤어지게 잘못 들어가다
-1. 명지바람
-2. 빗먹다
-3. 하늬바람</t>
-  </si>
-  <si>
-    <t>2, 빗먹다</t>
+    <t>보통의 이치에서 벗어나 막되고 상스럽다
+1. 빗먹다
+2. 하늬바람
+3. 상없다</t>
+  </si>
+  <si>
+    <t>3, 상없다</t>
   </si>
   <si>
     <t>1) 아주 귀찮게 구는 말이나 행동을 싫증 내지 않고 잘 받아 주는 일
@@ -95,25 +188,6 @@
     <t>3, 만수받이</t>
   </si>
   <si>
-    <t>일의 진행 과정에서 가장 중요한 대목
-그는 [   ]을 무사히 넘겼다
-1. 맨드리
-2. 줄목
-3. 갈무리</t>
-  </si>
-  <si>
-    <t>2, 줄목</t>
-  </si>
-  <si>
-    <t>보드랍고 화창한 바람
-1. 빗먹다
-2. 명지바람
-3. 데알다</t>
-  </si>
-  <si>
-    <t>2, 명지바람</t>
-  </si>
-  <si>
     <t>이유 없이 남의 말에 반대하기를 좋아하는 사람을 얕잡아 이르는 말
 1. 줄목
 2. 트레바리
@@ -121,80 +195,6 @@
   </si>
   <si>
     <t>2, 트레바리</t>
-  </si>
-  <si>
-    <t>자기만 혼자 잘나고 영악한 체하는 사람을 낮잡아 이르는 말
-1. 빗들다
-2. 윤똑똑이
-3. 상없다</t>
-  </si>
-  <si>
-    <t>2, 윤똑똑이</t>
-  </si>
-  <si>
-    <t>보통의 이치에서 벗어나 막되고 상스럽다
-1. 빗먹다
-2. 하늬바람
-3. 상없다</t>
-  </si>
-  <si>
-    <t>3, 상없다</t>
-  </si>
-  <si>
-    <t>지나치게 치켜세우다
-1. 치살리다
-2. 하늬바람
-3. 트레바리</t>
-  </si>
-  <si>
-    <t>1, 치살리다</t>
-  </si>
-  <si>
-    <t>자세히 모르고 대강 또는 반쯤만 알다
-1. 데알다
-2. 빗먹다
-3. 하늬바람</t>
-  </si>
-  <si>
-    <t>1, 데알다</t>
-  </si>
-  <si>
-    <t>1) 안쪽으로 오목하게 들어가거나 주름이 잡힌 물건
-2 마음씨가 바르지 못한 사람을 비유적으로 이르는 말
-1. 오그랑이
-2. 선걸음
-3. 명지바람</t>
-  </si>
-  <si>
-    <t>1, 오그랑이</t>
-  </si>
-  <si>
-    <t>이미 내디뎌 걷고 있는 그대로의 걸음
-그 사람들고 [   ]으로 그리 내달았다
-1. 명지바람
-2. 선걸음
-3. 하늬바람</t>
-  </si>
-  <si>
-    <t>2, 선걸음</t>
-  </si>
-  <si>
-    <t>북동풍, 봄~초여름에 걸쳐 태백산맥을 넘어 영서 지방으로 부는 고온 건조한 바람
-1. 맨드리
-2. 오그랑이
-3. 높새바람</t>
-  </si>
-  <si>
-    <t>3, 높새바람</t>
-  </si>
-  <si>
-    <t>서쪽에서 부는 바람
-1. 하늬바람
-2. 빗먹다
-3. 줄목</t>
-  </si>
-  <si>
-    <t>1, 하늬바람</t>
   </si>
 </sst>
 </file>

--- a/학습자료/단답형/객관식_국어_복습_고유어.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_고유어.xlsx
@@ -450,14 +450,14 @@
         <is>
           <t>일의 진행 과정에서 가장 중요한 대목
 그는 [   ]을 무사히 넘겼다
-1. 치살리다
-2. 윤똑똑이
-3. 줄목</t>
+1. 상없다
+2. 줄목
+3. 살바람</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, 줄목</t>
+          <t>2, 줄목</t>
         </is>
       </c>
     </row>
@@ -467,13 +467,13 @@
           <t>이미 내디뎌 걷고 있는 그대로의 걸음
 그 사람들고 [   ]으로 그리 내달았다
 1. 데알다
-2. 선걸음
-3. 맨드리</t>
+2. 만수받이
+3. 선걸음</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2, 선걸음</t>
+          <t>3, 선걸음</t>
         </is>
       </c>
     </row>
@@ -482,8 +482,8 @@
         <is>
           <t>물건 따위를 잘 정리하거나 간수함
 겨울 동안 [   ]를 했던 산나물을 팔았다
-1. 치살리다
-2. 빗들다
+1. 하늬바람
+2. 치살리다
 3. 갈무리</t>
         </is>
       </c>
@@ -498,14 +498,14 @@
         <is>
           <t>옷을 입고 매만진 맵시
 그는 인물보다 [   ]가 쓰레기꾼 축에 섞이기는 아까웠다
-1. 맨드리
-2. 치살리다
-3. 만수받이</t>
+1. 오그랑이
+2. 데알다
+3. 맨드리</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1, 맨드리</t>
+          <t>3, 맨드리</t>
         </is>
       </c>
     </row>
@@ -514,14 +514,14 @@
         <is>
           <t>음식을 먹지 않음
 그녀는 [   ]으로 출근 시간이 되기만을 기다렸다
-1. 빗들다
-2. 잔입
-3. 명지바람</t>
+1. 줄목
+2. 높새바람
+3. 잔입</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2, 잔입</t>
+          <t>3, 잔입</t>
         </is>
       </c>
     </row>
@@ -529,14 +529,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>보드랍고 화창한 바람
-1. 명지바람
-2. 윤똑똑이
-3. 빗먹다</t>
+1. 줄목
+2. 명지바람
+3. 치살리다</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1, 명지바람</t>
+          <t>2, 명지바람</t>
         </is>
       </c>
     </row>
@@ -544,14 +544,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>서쪽에서 부는 바람
-1. 하늬바람
-2. 데알다
+1. 빗들다
+2. 하늬바람
 3. 갈무리</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1, 하늬바람</t>
+          <t>2, 하늬바람</t>
         </is>
       </c>
     </row>
@@ -559,14 +559,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>좁은 틈으로 새어 들어오는 바람, 혹은 초봄에 부는 찬 바람
-1. 살바람
-2. 맨드리
-3. 오그랑이</t>
+1. 명지바람
+2. 살바람
+3. 치살리다</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1, 살바람</t>
+          <t>2, 살바람</t>
         </is>
       </c>
     </row>
@@ -574,14 +574,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>북동풍, 봄~초여름에 걸쳐 태백산맥을 넘어 영서 지방으로 부는 고온 건조한 바람
-1. 데알다
-2. 높새바람
-3. 갈무리</t>
+1. 높새바람
+2. 오그랑이
+3. 잔입</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2, 높새바람</t>
+          <t>1, 높새바람</t>
         </is>
       </c>
     </row>
@@ -590,14 +590,14 @@
         <is>
           <t>1) 아주 귀찮게 구는 말이나 행동을 싫증 내지 않고 잘 받아 주는 일
 2 [민속 ] 토속 신앙에서, 무당이 굿을 할 때 한 사람이 소리하면 다른 사람이 따라서 같은 소리를 받아 하는 일
-1. 만수받이
+1. 높새바람
 2. 명지바람
-3. 선걸음</t>
+3. 만수받이</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1, 만수받이</t>
+          <t>3, 만수받이</t>
         </is>
       </c>
     </row>
@@ -605,14 +605,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>자기만 혼자 잘나고 영악한 체하는 사람을 낮잡아 이르는 말
-1. 윤똑똑이
-2. 하늬바람
-3. 트레바리</t>
+1. 치살리다
+2. 상없다
+3. 윤똑똑이</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1, 윤똑똑이</t>
+          <t>3, 윤똑똑이</t>
         </is>
       </c>
     </row>
@@ -620,14 +620,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>이유 없이 남의 말에 반대하기를 좋아하는 사람을 얕잡아 이르는 말
-1. 명지바람
-2. 트레바리
-3. 갈무리</t>
+1. 트레바리
+2. 빗먹다
+3. 상없다</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2, 트레바리</t>
+          <t>1, 트레바리</t>
         </is>
       </c>
     </row>
@@ -636,14 +636,14 @@
         <is>
           <t>1) 안쪽으로 오목하게 들어가거나 주름이 잡힌 물건
 2 마음씨가 바르지 못한 사람을 비유적으로 이르는 말
-1. 살바람
-2. 빗먹다
-3. 오그랑이</t>
+1. 선걸음
+2. 오그랑이
+3. 데알다</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3, 오그랑이</t>
+          <t>2, 오그랑이</t>
         </is>
       </c>
     </row>
@@ -651,14 +651,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>마음이나 생각 따위가 잘못 들다
-1. 빗들다
-2. 상없다
-3. 줄목</t>
+1. 높새바람
+2. 명지바람
+3. 빗들다</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1, 빗들다</t>
+          <t>3, 빗들다</t>
         </is>
       </c>
     </row>
@@ -666,14 +666,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>물건을 벨 때 칼이나 톱이 먹줄대로 나가지 아니 하고 비뚤어지게 잘못 들어가다
-1. 상없다
-2. 빗먹다
-3. 윤똑똑이</t>
+1. 빗먹다
+2. 만수받이
+3. 살바람</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2, 빗먹다</t>
+          <t>1, 빗먹다</t>
         </is>
       </c>
     </row>
@@ -682,8 +682,8 @@
         <is>
           <t>보통의 이치에서 벗어나 막되고 상스럽다
 1. 상없다
-2. 윤똑똑이
-3. 데알다</t>
+2. 높새바람
+3. 만수받이</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -696,14 +696,14 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>지나치게 치켜세우다
-1. 명지바람
-2. 치살리다
-3. 트레바리</t>
+1. 높새바람
+2. 만수받이
+3. 치살리다</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2, 치살리다</t>
+          <t>3, 치살리다</t>
         </is>
       </c>
     </row>
@@ -711,14 +711,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>자세히 모르고 대강 또는 반쯤만 알다
-1. 데알다
-2. 갈무리
-3. 줄목</t>
+1. 치살리다
+2. 데알다
+3. 윤똑똑이</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1, 데알다</t>
+          <t>2, 데알다</t>
         </is>
       </c>
     </row>
